--- a/ФЛК0722 для БД.xlsx
+++ b/ФЛК0722 для БД.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$86</definedName>
@@ -1429,11 +1430,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="A3 C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1444,6 +1443,11 @@
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
+        <v>123</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>247</v>
@@ -1704,7 +1708,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>279</v>
       </c>
@@ -1724,7 +1728,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>279</v>
       </c>
@@ -3273,4 +3277,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>